--- a/Configs/Property.xlsx
+++ b/Configs/Property.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
-    <t>属性Id</t>
+    <t>人物Id</t>
   </si>
   <si>
     <t>力量</t>
@@ -126,7 +126,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +136,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -294,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,12 +357,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,148 +605,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1080,9 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>

--- a/Configs/Property.xlsx
+++ b/Configs/Property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>运气</t>
   </si>
   <si>
-    <t>血量</t>
+    <t>初始生命值</t>
   </si>
   <si>
     <t>金币</t>
@@ -110,7 +110,7 @@
     <t>playerLeg</t>
   </si>
   <si>
-    <t>playerweapon</t>
+    <t>playerWeapon</t>
   </si>
   <si>
     <t>int</t>
@@ -135,12 +135,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -750,12 +748,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,10 +1078,10 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
@@ -1090,7 +1089,7 @@
     <col min="1" max="14" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" ht="16.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" ht="16.5" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" ht="16.5" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1222,47 +1221,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+    <row r="4" ht="16.5" spans="1:14">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>60</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>20001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>20002</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>20003</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>20003</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>20004</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>30001</v>
       </c>
     </row>

--- a/Configs/Property.xlsx
+++ b/Configs/Property.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="人物属性" sheetId="1" r:id="rId1"/>
@@ -1078,18 +1078,18 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="14" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:14">
+    <row r="1" ht="15.6" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:14">
+    <row r="2" ht="15.6" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
+    <row r="3" ht="15.6" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" ht="15.6" spans="1:14">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1247,19 +1247,19 @@
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>20001</v>
+        <v>20005</v>
       </c>
       <c r="J4" s="2">
-        <v>20002</v>
+        <v>20006</v>
       </c>
       <c r="K4" s="2">
-        <v>20003</v>
+        <v>20007</v>
       </c>
       <c r="L4" s="2">
-        <v>20003</v>
+        <v>20007</v>
       </c>
       <c r="M4" s="2">
-        <v>20004</v>
+        <v>20008</v>
       </c>
       <c r="N4" s="3">
         <v>30001</v>
